--- a/tests/bin/sample_JR1_reports.xlsx
+++ b/tests/bin/sample_JR1_reports.xlsx
@@ -13,25 +13,22 @@
   </bookViews>
   <sheets>
     <sheet name="EBSCO 16-17" sheetId="4" r:id="rId1"/>
-    <sheet name="Gale 16-17" sheetId="5" r:id="rId2"/>
-    <sheet name="PQ 16-17" sheetId="6" r:id="rId3"/>
+    <sheet name="PQ 16-17" sheetId="6" r:id="rId2"/>
+    <sheet name="Gale 16-17" sheetId="10" r:id="rId3"/>
     <sheet name="EBSCO 17-18" sheetId="1" r:id="rId4"/>
-    <sheet name="Gale 17-18" sheetId="2" r:id="rId5"/>
-    <sheet name="PQ 17-18" sheetId="3" r:id="rId6"/>
+    <sheet name="PQ 17-18" sheetId="3" r:id="rId5"/>
+    <sheet name="Gale 17-18" sheetId="11" r:id="rId6"/>
     <sheet name="EBSCO 18-19" sheetId="7" r:id="rId7"/>
-    <sheet name="Gale 18-19" sheetId="8" r:id="rId8"/>
-    <sheet name="PQ 18-19" sheetId="9" r:id="rId9"/>
+    <sheet name="PQ 18-19" sheetId="9" r:id="rId8"/>
+    <sheet name="Gale 18-19" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EBSCO 16-17'!$A$8:$V$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'EBSCO 17-18'!$A$8:$V$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'EBSCO 18-19'!$A$8:$V$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Gale 16-17'!$A$8:$V$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Gale 17-18'!$A$8:$V$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Gale 18-19'!$A$8:$V$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PQ 16-17'!$A$8:$V$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'PQ 17-18'!$A$8:$V$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'PQ 18-19'!$A$8:$V$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PQ 16-17'!$A$8:$V$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'PQ 17-18'!$A$8:$V$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'PQ 18-19'!$A$8:$V$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="125">
   <si>
     <t/>
   </si>
@@ -279,15 +276,6 @@
     <t>Total for all journals</t>
   </si>
   <si>
-    <t>2018-07-19</t>
-  </si>
-  <si>
-    <t>2017-07-01  to  2018-06-30</t>
-  </si>
-  <si>
-    <t>Florida State University (Location ID: tall85761)</t>
-  </si>
-  <si>
     <t>ProQuest</t>
   </si>
   <si>
@@ -375,12 +363,6 @@
     <t>Number of Successful Full-text Article Requests by Month and Journal</t>
   </si>
   <si>
-    <t>2017-12-12</t>
-  </si>
-  <si>
-    <t>2016-07-01  to  2017-06-30</t>
-  </si>
-  <si>
     <t>Reed Business Information Limited</t>
   </si>
   <si>
@@ -433,22 +415,13 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2019-08-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2018-07-01  to  2019-06-30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#0"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,50 +436,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Andale WT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Andale WT"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Andale WT"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF757575"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -514,39 +453,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -554,68 +465,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0C0C0"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
@@ -639,14 +499,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFC0C0C0"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFFEB9C"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
@@ -656,14 +508,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC0C0C0"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
@@ -958,47 +802,47 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -1030,43 +874,43 @@
         <v>53</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1089,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1148,7 +992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1207,7 +1051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1266,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1325,12 +1169,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -1339,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
         <v>0</v>
@@ -1384,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1443,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1502,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1561,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1620,12 +1464,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -1634,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
         <v>0</v>
@@ -1691,468 +1535,281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="3">
+        <v>42552</v>
+      </c>
+      <c r="L8" s="3">
+        <v>42583</v>
+      </c>
+      <c r="M8" s="3">
+        <v>42614</v>
+      </c>
+      <c r="N8" s="3">
+        <v>42644</v>
+      </c>
+      <c r="O8" s="3">
+        <v>42675</v>
+      </c>
+      <c r="P8" s="3">
+        <v>42705</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>42736</v>
+      </c>
+      <c r="R8" s="3">
+        <v>42767</v>
+      </c>
+      <c r="S8" s="3">
+        <v>42795</v>
+      </c>
+      <c r="T8" s="3">
+        <v>42826</v>
+      </c>
+      <c r="U8" s="3">
+        <v>42856</v>
+      </c>
+      <c r="V8" s="3">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A7" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-    </row>
-    <row r="10" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>22</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="K10">
         <v>14</v>
       </c>
-      <c r="M10" s="5">
-        <v>21</v>
-      </c>
-      <c r="N10" s="5">
-        <v>74</v>
-      </c>
-      <c r="O10" s="5">
-        <v>38</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>28</v>
+      </c>
+      <c r="O10">
+        <v>27</v>
+      </c>
+      <c r="P10">
+        <v>12</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>23</v>
+      </c>
+      <c r="T10">
+        <v>32</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="5">
-        <v>27</v>
-      </c>
-      <c r="R10" s="5">
-        <v>50</v>
-      </c>
-      <c r="S10" s="5">
-        <v>48</v>
-      </c>
-      <c r="T10" s="5">
-        <v>48</v>
-      </c>
-      <c r="U10" s="5">
-        <v>25</v>
-      </c>
-      <c r="V10" s="5">
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <v>24</v>
+      </c>
+      <c r="P12">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>3</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>3</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <v>0</v>
-      </c>
-      <c r="S11" s="5">
-        <v>0</v>
-      </c>
-      <c r="T11" s="5">
-        <v>3</v>
-      </c>
-      <c r="U11" s="5">
-        <v>3</v>
-      </c>
-      <c r="V11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>24</v>
+      </c>
+      <c r="S12">
+        <v>23</v>
+      </c>
+      <c r="T12">
+        <v>23</v>
+      </c>
+      <c r="U12">
         <v>4</v>
       </c>
-      <c r="O12" s="5">
-        <v>3</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5">
-        <v>0</v>
-      </c>
-      <c r="T12" s="5">
-        <v>0</v>
-      </c>
-      <c r="U12" s="5">
-        <v>0</v>
-      </c>
-      <c r="V12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>3</v>
-      </c>
-      <c r="M13" s="5">
-        <v>4</v>
-      </c>
-      <c r="N13" s="5">
-        <v>9</v>
-      </c>
-      <c r="O13" s="5">
-        <v>19</v>
-      </c>
-      <c r="P13" s="5">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>3</v>
-      </c>
-      <c r="R13" s="5">
-        <v>5</v>
-      </c>
-      <c r="S13" s="5">
+      <c r="V12">
         <v>12</v>
-      </c>
-      <c r="T13" s="5">
-        <v>11</v>
-      </c>
-      <c r="U13" s="5">
-        <v>3</v>
-      </c>
-      <c r="V13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>11</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>6</v>
-      </c>
-      <c r="P14" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
-        <v>9</v>
-      </c>
-      <c r="S14" s="3">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A8:V8">
-    <sortState ref="A9:V14">
+    <sortState ref="A9:W12">
       <sortCondition sortBy="cellColor" ref="A8" dxfId="4"/>
     </sortState>
   </autoFilter>
@@ -2162,284 +1819,401 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3">
-        <v>4840</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+      <c r="M3">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>74</v>
+      </c>
+      <c r="O3">
+        <v>38</v>
+      </c>
+      <c r="P3">
+        <v>25</v>
+      </c>
+      <c r="Q3">
+        <v>27</v>
+      </c>
+      <c r="R3">
+        <v>50</v>
+      </c>
+      <c r="S3">
+        <v>48</v>
+      </c>
+      <c r="T3">
+        <v>48</v>
+      </c>
+      <c r="U3">
+        <v>25</v>
+      </c>
+      <c r="V3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="13">
-        <v>43075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="12">
-        <v>42552</v>
-      </c>
-      <c r="L8" s="12">
-        <v>42583</v>
-      </c>
-      <c r="M8" s="12">
-        <v>42614</v>
-      </c>
-      <c r="N8" s="12">
-        <v>42644</v>
-      </c>
-      <c r="O8" s="12">
-        <v>42675</v>
-      </c>
-      <c r="P8" s="12">
-        <v>42705</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>42736</v>
-      </c>
-      <c r="R8" s="12">
-        <v>42767</v>
-      </c>
-      <c r="S8" s="12">
-        <v>42795</v>
-      </c>
-      <c r="T8" s="12">
-        <v>42826</v>
-      </c>
-      <c r="U8" s="12">
-        <v>42856</v>
-      </c>
-      <c r="V8" s="12">
-        <v>42887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10">
-        <v>14</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
         <v>4</v>
       </c>
-      <c r="N10">
-        <v>28</v>
-      </c>
-      <c r="O10">
-        <v>27</v>
-      </c>
-      <c r="P10">
+      <c r="N6">
+        <v>9</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6">
+        <v>17</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
         <v>12</v>
       </c>
-      <c r="Q10">
+      <c r="T6">
+        <v>11</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
         <v>6</v>
       </c>
-      <c r="R10">
-        <v>8</v>
-      </c>
-      <c r="S10">
-        <v>23</v>
-      </c>
-      <c r="T10">
-        <v>32</v>
-      </c>
-      <c r="U10">
+      <c r="P7">
         <v>5</v>
       </c>
-      <c r="V10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="S11">
-        <v>3</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>18</v>
-      </c>
-      <c r="O12">
-        <v>24</v>
-      </c>
-      <c r="P12">
-        <v>26</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>24</v>
-      </c>
-      <c r="S12">
-        <v>23</v>
-      </c>
-      <c r="T12">
-        <v>23</v>
-      </c>
-      <c r="U12">
+      <c r="R7">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
         <v>4</v>
       </c>
-      <c r="V12">
-        <v>12</v>
+      <c r="V7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:V8">
-    <sortState ref="A9:W12">
-      <sortCondition sortBy="cellColor" ref="A8" dxfId="3"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2452,9 +2226,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -2462,32 +2236,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -2555,7 +2329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2578,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2637,7 +2411,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2696,7 +2470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2755,7 +2529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2814,7 +2588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2873,7 +2647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2932,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2991,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3050,7 +2824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3112,7 +2886,7 @@
   </sheetData>
   <autoFilter ref="A8:V8">
     <sortState ref="A9:V18">
-      <sortCondition sortBy="cellColor" ref="A8" dxfId="8"/>
+      <sortCondition sortBy="cellColor" ref="A8" dxfId="3"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3121,468 +2895,282 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="2" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="3">
+        <v>42917</v>
+      </c>
+      <c r="L8" s="3">
+        <v>42948</v>
+      </c>
+      <c r="M8" s="3">
+        <v>42979</v>
+      </c>
+      <c r="N8" s="3">
+        <v>43009</v>
+      </c>
+      <c r="O8" s="3">
+        <v>43040</v>
+      </c>
+      <c r="P8" s="3">
+        <v>43070</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>43101</v>
+      </c>
+      <c r="R8" s="3">
+        <v>43132</v>
+      </c>
+      <c r="S8" s="3">
+        <v>43160</v>
+      </c>
+      <c r="T8" s="3">
+        <v>43191</v>
+      </c>
+      <c r="U8" s="3">
+        <v>43221</v>
+      </c>
+      <c r="V8" s="3">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A7" s="11" t="s">
+      <c r="C12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-    </row>
-    <row r="10" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>29</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
         <v>8</v>
       </c>
-      <c r="M10" s="5">
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>9</v>
+      </c>
+      <c r="S12">
         <v>6</v>
       </c>
-      <c r="N10" s="5">
-        <v>11</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="T12">
         <v>8</v>
       </c>
-      <c r="P10" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>4</v>
-      </c>
-      <c r="R10" s="5">
-        <v>14</v>
-      </c>
-      <c r="S10" s="5">
-        <v>13</v>
-      </c>
-      <c r="T10" s="5">
-        <v>18</v>
-      </c>
-      <c r="U10" s="5">
+      <c r="U12">
         <v>2</v>
       </c>
-      <c r="V10" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <v>4</v>
-      </c>
-      <c r="S11" s="5">
-        <v>7</v>
-      </c>
-      <c r="T11" s="5">
-        <v>5</v>
-      </c>
-      <c r="U11" s="5">
-        <v>0</v>
-      </c>
-      <c r="V11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>2</v>
-      </c>
-      <c r="O12" s="5">
-        <v>2</v>
-      </c>
-      <c r="P12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5">
-        <v>2</v>
-      </c>
-      <c r="S12" s="5">
-        <v>0</v>
-      </c>
-      <c r="T12" s="5">
-        <v>0</v>
-      </c>
-      <c r="U12" s="5">
-        <v>0</v>
-      </c>
-      <c r="V12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>6</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>0</v>
-      </c>
-      <c r="R13" s="5">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
-        <v>0</v>
-      </c>
-      <c r="T13" s="5">
-        <v>7</v>
-      </c>
-      <c r="U13" s="5">
-        <v>0</v>
-      </c>
-      <c r="V13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3">
-        <v>2</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>2</v>
-      </c>
-      <c r="U14" s="3">
-        <v>2</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A8:V8">
-    <sortState ref="A9:V14">
-      <sortCondition sortBy="cellColor" ref="A8" dxfId="7"/>
+    <sortState ref="A9:W12">
+      <sortCondition sortBy="cellColor" ref="A8" dxfId="2"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3591,284 +3179,401 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3">
-        <v>4840</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>29</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>14</v>
+      </c>
+      <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="13">
-        <v>43308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="12">
-        <v>42917</v>
-      </c>
-      <c r="L8" s="12">
-        <v>42948</v>
-      </c>
-      <c r="M8" s="12">
-        <v>42979</v>
-      </c>
-      <c r="N8" s="12">
-        <v>43009</v>
-      </c>
-      <c r="O8" s="12">
-        <v>43040</v>
-      </c>
-      <c r="P8" s="12">
-        <v>43070</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>43101</v>
-      </c>
-      <c r="R8" s="12">
-        <v>43132</v>
-      </c>
-      <c r="S8" s="12">
-        <v>43160</v>
-      </c>
-      <c r="T8" s="12">
-        <v>43191</v>
-      </c>
-      <c r="U8" s="12">
-        <v>43221</v>
-      </c>
-      <c r="V8" s="12">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>6</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>7</v>
       </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>5</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-      <c r="R10">
-        <v>6</v>
-      </c>
-      <c r="S10">
-        <v>5</v>
-      </c>
-      <c r="T10">
-        <v>10</v>
-      </c>
-      <c r="U10">
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
         <v>2</v>
       </c>
-      <c r="V10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>5</v>
-      </c>
-      <c r="S11">
-        <v>4</v>
-      </c>
-      <c r="T11">
-        <v>4</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12">
-        <v>14</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7">
         <v>2</v>
       </c>
-      <c r="N12">
-        <v>8</v>
-      </c>
-      <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>10</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>9</v>
-      </c>
-      <c r="S12">
-        <v>6</v>
-      </c>
-      <c r="T12">
-        <v>8</v>
-      </c>
-      <c r="U12">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>2</v>
       </c>
-      <c r="V12">
-        <v>1</v>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:V8">
-    <sortState ref="A9:W12">
-      <sortCondition sortBy="cellColor" ref="A8" dxfId="6"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3881,9 +3586,9 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -3891,32 +3596,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -3948,43 +3653,43 @@
         <v>53</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -4007,12 +3712,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -4021,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
         <v>0</v>
@@ -4066,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -4125,7 +3830,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -4145,7 +3850,7 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K12" s="1">
         <v>20</v>
@@ -4184,7 +3889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -4243,7 +3948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -4302,7 +4007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4361,7 +4066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -4420,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4479,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -4538,12 +4243,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -4552,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
         <v>0</v>
@@ -4600,7 +4305,7 @@
   </sheetData>
   <autoFilter ref="A8:V8">
     <sortState ref="A9:W19">
-      <sortCondition sortBy="cellColor" ref="A8" dxfId="2"/>
+      <sortCondition sortBy="cellColor" ref="A8" dxfId="1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4609,469 +4314,335 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="85.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="3">
+        <v>43282</v>
+      </c>
+      <c r="L8" s="3">
+        <v>43313</v>
+      </c>
+      <c r="M8" s="3">
+        <v>43344</v>
+      </c>
+      <c r="N8" s="3">
+        <v>43374</v>
+      </c>
+      <c r="O8" s="3">
+        <v>43405</v>
+      </c>
+      <c r="P8" s="3">
+        <v>43435</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>43466</v>
+      </c>
+      <c r="R8" s="3">
+        <v>43497</v>
+      </c>
+      <c r="S8" s="3">
+        <v>43525</v>
+      </c>
+      <c r="T8" s="3">
+        <v>43556</v>
+      </c>
+      <c r="U8" s="3">
+        <v>43586</v>
+      </c>
+      <c r="V8" s="3">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A7" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-    </row>
-    <row r="10" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K10" s="15">
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>7</v>
       </c>
-      <c r="L10" s="15">
-        <v>9</v>
-      </c>
-      <c r="M10" s="15">
-        <v>7</v>
-      </c>
-      <c r="N10" s="15">
-        <v>8</v>
-      </c>
-      <c r="O10" s="15">
-        <v>12</v>
-      </c>
-      <c r="P10" s="15">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>9</v>
-      </c>
-      <c r="R10" s="15">
-        <v>12</v>
-      </c>
-      <c r="S10" s="15">
-        <v>18</v>
-      </c>
-      <c r="T10" s="15">
-        <v>12</v>
-      </c>
-      <c r="U10" s="15">
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="O13">
         <v>5</v>
       </c>
-      <c r="V10" s="15">
+      <c r="P13">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" s="15">
-        <v>2</v>
-      </c>
-      <c r="L11" s="15">
-        <v>1</v>
-      </c>
-      <c r="M11" s="15">
-        <v>1</v>
-      </c>
-      <c r="N11" s="15">
-        <v>2</v>
-      </c>
-      <c r="O11" s="15">
-        <v>2</v>
-      </c>
-      <c r="P11" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>1</v>
-      </c>
-      <c r="R11" s="15">
-        <v>1</v>
-      </c>
-      <c r="S11" s="15">
-        <v>2</v>
-      </c>
-      <c r="T11" s="15">
-        <v>1</v>
-      </c>
-      <c r="U11" s="15">
-        <v>1</v>
-      </c>
-      <c r="V11" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" s="15">
-        <v>2</v>
-      </c>
-      <c r="L12" s="15">
-        <v>1</v>
-      </c>
-      <c r="M12" s="15">
-        <v>1</v>
-      </c>
-      <c r="N12" s="15">
-        <v>3</v>
-      </c>
-      <c r="O12" s="15">
-        <v>1</v>
-      </c>
-      <c r="P12" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>4</v>
-      </c>
-      <c r="R12" s="15">
-        <v>2</v>
-      </c>
-      <c r="S12" s="15">
-        <v>2</v>
-      </c>
-      <c r="T12" s="15">
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
         <v>5</v>
       </c>
-      <c r="U12" s="15">
-        <v>1</v>
-      </c>
-      <c r="V12" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" s="15">
-        <v>1</v>
-      </c>
-      <c r="L13" s="15">
-        <v>1</v>
-      </c>
-      <c r="M13" s="15">
-        <v>5</v>
-      </c>
-      <c r="N13" s="15">
-        <v>3</v>
-      </c>
-      <c r="O13" s="15">
-        <v>2</v>
-      </c>
-      <c r="P13" s="15">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>1</v>
-      </c>
-      <c r="R13" s="15">
-        <v>2</v>
-      </c>
-      <c r="S13" s="15">
-        <v>1</v>
-      </c>
-      <c r="T13" s="15">
-        <v>1</v>
-      </c>
-      <c r="U13" s="15">
-        <v>1</v>
-      </c>
-      <c r="V13" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
-      <c r="N14" s="3">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>2</v>
-      </c>
-      <c r="R14" s="3">
-        <v>1</v>
-      </c>
-      <c r="S14" s="3">
-        <v>2</v>
-      </c>
-      <c r="T14" s="3">
-        <v>1</v>
-      </c>
-      <c r="U14" s="3">
-        <v>1</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1</v>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>17</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A8:V8">
-    <sortState ref="A9:W14">
-      <sortCondition sortBy="cellColor" ref="A8" dxfId="1"/>
+    <sortState ref="A9:W13">
+      <sortCondition sortBy="cellColor" ref="A8" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5080,337 +4651,401 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3">
-        <v>4840</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <v>13</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>12</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>12</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="13">
-        <v>43692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="12">
-        <v>43282</v>
-      </c>
-      <c r="L8" s="12">
-        <v>43313</v>
-      </c>
-      <c r="M8" s="12">
-        <v>43344</v>
-      </c>
-      <c r="N8" s="12">
-        <v>43374</v>
-      </c>
-      <c r="O8" s="12">
-        <v>43405</v>
-      </c>
-      <c r="P8" s="12">
-        <v>43435</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>43466</v>
-      </c>
-      <c r="R8" s="12">
-        <v>43497</v>
-      </c>
-      <c r="S8" s="12">
-        <v>43525</v>
-      </c>
-      <c r="T8" s="12">
-        <v>43556</v>
-      </c>
-      <c r="U8" s="12">
-        <v>43586</v>
-      </c>
-      <c r="V8" s="12">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
         <v>4</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>11</v>
-      </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>6</v>
-      </c>
-      <c r="S10">
-        <v>10</v>
-      </c>
-      <c r="T10">
-        <v>9</v>
-      </c>
-      <c r="U10">
-        <v>5</v>
-      </c>
-      <c r="V10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>7</v>
-      </c>
-      <c r="T12">
-        <v>4</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>6</v>
-      </c>
-      <c r="N13">
-        <v>6</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="Q13">
-        <v>6</v>
-      </c>
-      <c r="R13">
-        <v>5</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>17</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>10</v>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:V8">
-    <sortState ref="A9:W13">
-      <sortCondition sortBy="cellColor" ref="A8" dxfId="0"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>